--- a/motorcycle_license_plate-main/car_details.xlsx
+++ b/motorcycle_license_plate-main/car_details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\FinalYearProjectFinalPart\motorcycle_license_plate-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD2432-AD8C-4296-BF44-AEDCE1E05EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D20760-35E9-420D-B7B2-B7A7E2669ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>Naivaidya Negi</t>
   </si>
   <si>
-    <t>naivaidyanegi@gmail.com</t>
-  </si>
-  <si>
     <t>UK07BK6023</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,18 +397,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{80B2DFA6-F30D-4709-8054-C2CE41C62BBD}"/>
+    <hyperlink ref="C2" r:id="rId1" display="naivaidyanegi@gmail.com" xr:uid="{80B2DFA6-F30D-4709-8054-C2CE41C62BBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
